--- a/APITestingWithTestNG/src/test/resources/TestData.xlsx
+++ b/APITestingWithTestNG/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>call</t>
   </si>
@@ -156,10 +156,13 @@
     <t>diseaseState=ESRD</t>
   </si>
   <si>
-    <t>status=3</t>
-  </si>
-  <si>
-    <t>message=Object rweference not set</t>
+    <t>status=2</t>
+  </si>
+  <si>
+    <t>/api/Patient/GetPtMatFulfillment</t>
+  </si>
+  <si>
+    <t>/api/Patient/GetPatientReferrals</t>
   </si>
 </sst>
 </file>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,8 +675,34 @@
       <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>159445</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>159445</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
